--- a/examples/findings.xlsx
+++ b/examples/findings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="700" windowWidth="19860" windowHeight="6360" activeTab="1"/>
+    <workbookView xWindow="2060" yWindow="1600" windowWidth="19020" windowHeight="6840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="long" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -34,6 +34,9 @@
     <t>IP</t>
   </si>
   <si>
+    <t>Location</t>
+  </si>
+  <si>
     <t>Remediation status</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>192.168.1.43</t>
   </si>
   <si>
+    <t>Paris branch - core net</t>
+  </si>
+  <si>
     <t>USN-1636-1 : thunderbird vulnerabilities</t>
   </si>
   <si>
@@ -61,6 +67,9 @@
     <t>192.168.1.100</t>
   </si>
   <si>
+    <t>Paris branch - 1st floor</t>
+  </si>
+  <si>
     <t>MS08-067: Microsoft Windows Server Service Crafted RPC Request Handling Remote Code Execution (958644) (uncredentialed check)</t>
   </si>
   <si>
@@ -232,6 +241,9 @@
     <t>192.168.1.203</t>
   </si>
   <si>
+    <t>Paris branch - 3rd floor</t>
+  </si>
+  <si>
     <t>192.168.1.202</t>
   </si>
   <si>
@@ -389,37 +401,18 @@
   </si>
   <si>
     <t>192.168.1.34,192.168.1.1</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>someone</t>
-  </si>
-  <si>
-    <t>someone else</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -443,9 +436,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,11 +732,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F269"/>
+  <dimension ref="A1:G269"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -752,3795 +742,4588 @@
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="101.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>63145</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>63023</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>35362</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>35362</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>34477</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>34477</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>22194</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>58435</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>35635</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>34311</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>22034</v>
       </c>
       <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>57690</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>57608</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>57608</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>57608</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>57608</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>51192</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>51192</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>45411</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>45411</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>26920</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>26920</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>26920</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>26920</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>18405</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>12217</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>50686</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>42263</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
         <v>33</v>
       </c>
-      <c r="D29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>34324</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30218</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>10663</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>62563</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>62563</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>58651</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>56984</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>56984</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>56468</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>55472</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>54615</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>54615</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>54615</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>54615</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>54615</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>54615</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>46215</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>45590</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>45590</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>45590</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>45590</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>45590</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>45590</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>45410</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>45410</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>43111</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>43111</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>39521</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>35716</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D58" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>35716</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>35716</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>35716</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>54</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>35716</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>35716</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>35716</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>35716</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C65" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D65" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>35373</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C66" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D66" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>35371</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C67" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D67" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>33276</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C68" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>26917</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D69" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>26917</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>26917</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>26917</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>25220</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C73" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D73" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>25220</v>
       </c>
       <c r="B74" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C74" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D74" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>25220</v>
       </c>
       <c r="B75" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C75" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>25220</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C76" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D76" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>25220</v>
       </c>
       <c r="B77" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C77" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>25203</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C78" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>25202</v>
       </c>
       <c r="B79" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C79" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>24786</v>
       </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C80" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>24786</v>
       </c>
       <c r="B81" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C81" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>24786</v>
       </c>
       <c r="B82" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C82" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D82" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>24786</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C83" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>24260</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C84" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>24260</v>
       </c>
       <c r="B85" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C85" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>22964</v>
       </c>
       <c r="B86" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C86" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>22964</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C87" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>22964</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C88" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>22964</v>
       </c>
       <c r="B89" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C89" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>22964</v>
       </c>
       <c r="B90" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C90" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>22964</v>
       </c>
       <c r="B91" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C91" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>22964</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>22964</v>
       </c>
       <c r="B93" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C93" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D93" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>22964</v>
       </c>
       <c r="B94" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C94" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D94" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>22964</v>
       </c>
       <c r="B95" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C95" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D95" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>22964</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C96" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D96" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>22869</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C97" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>21643</v>
       </c>
       <c r="B98" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C98" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>21643</v>
       </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C99" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D99" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>21208</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C100" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>20301</v>
       </c>
       <c r="B101" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C101" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D101" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>20108</v>
       </c>
       <c r="B102" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C102" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>19772</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C103" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D103" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>19506</v>
       </c>
       <c r="B104" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C104" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D104" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>19506</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C105" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D105" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>19506</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C106" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>19506</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D107" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>54</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>19506</v>
       </c>
       <c r="B108" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C108" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D108" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>19506</v>
       </c>
       <c r="B109" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C109" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D109" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>19506</v>
       </c>
       <c r="B110" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C110" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D110" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="E110" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>19506</v>
       </c>
       <c r="B111" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C111" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D111" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="E111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>19506</v>
       </c>
       <c r="B112" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C112" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D112" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="E112" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113">
         <v>19506</v>
       </c>
       <c r="B113" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C113" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D113" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114">
         <v>19506</v>
       </c>
       <c r="B114" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C114" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D114" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115">
         <v>18261</v>
       </c>
       <c r="B115" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C115" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116">
         <v>14274</v>
       </c>
       <c r="B116" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C116" t="s">
+        <v>77</v>
+      </c>
+      <c r="D116" t="s">
+        <v>72</v>
+      </c>
+      <c r="E116" t="s">
         <v>73</v>
       </c>
-      <c r="D116" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117">
         <v>14274</v>
       </c>
       <c r="B117" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C117" t="s">
+        <v>77</v>
+      </c>
+      <c r="D117" t="s">
+        <v>72</v>
+      </c>
+      <c r="E117" t="s">
         <v>73</v>
       </c>
-      <c r="D117" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118">
         <v>14274</v>
       </c>
       <c r="B118" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C118" t="s">
+        <v>77</v>
+      </c>
+      <c r="D118" t="s">
+        <v>72</v>
+      </c>
+      <c r="E118" t="s">
         <v>73</v>
       </c>
-      <c r="D118" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119">
         <v>14274</v>
       </c>
       <c r="B119" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C119" t="s">
+        <v>77</v>
+      </c>
+      <c r="D119" t="s">
+        <v>72</v>
+      </c>
+      <c r="E119" t="s">
         <v>73</v>
       </c>
-      <c r="D119" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120">
         <v>14274</v>
       </c>
       <c r="B120" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C120" t="s">
+        <v>77</v>
+      </c>
+      <c r="D120" t="s">
+        <v>72</v>
+      </c>
+      <c r="E120" t="s">
         <v>73</v>
       </c>
-      <c r="D120" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121">
         <v>14274</v>
       </c>
       <c r="B121" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C121" t="s">
+        <v>77</v>
+      </c>
+      <c r="D121" t="s">
+        <v>72</v>
+      </c>
+      <c r="E121" t="s">
         <v>73</v>
       </c>
-      <c r="D121" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122">
         <v>14274</v>
       </c>
       <c r="B122" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C122" t="s">
+        <v>77</v>
+      </c>
+      <c r="D122" t="s">
+        <v>74</v>
+      </c>
+      <c r="E122" t="s">
         <v>73</v>
       </c>
-      <c r="D122" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>14274</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C123" t="s">
+        <v>77</v>
+      </c>
+      <c r="D123" t="s">
+        <v>74</v>
+      </c>
+      <c r="E123" t="s">
         <v>73</v>
       </c>
-      <c r="D123" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124">
         <v>14274</v>
       </c>
       <c r="B124" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C124" t="s">
+        <v>77</v>
+      </c>
+      <c r="D124" t="s">
+        <v>74</v>
+      </c>
+      <c r="E124" t="s">
         <v>73</v>
       </c>
-      <c r="D124" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125">
         <v>14274</v>
       </c>
       <c r="B125" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C125" t="s">
+        <v>77</v>
+      </c>
+      <c r="D125" t="s">
+        <v>74</v>
+      </c>
+      <c r="E125" t="s">
         <v>73</v>
       </c>
-      <c r="D125" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126">
         <v>14274</v>
       </c>
       <c r="B126" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C126" t="s">
+        <v>77</v>
+      </c>
+      <c r="D126" t="s">
+        <v>74</v>
+      </c>
+      <c r="E126" t="s">
         <v>73</v>
       </c>
-      <c r="D126" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127">
         <v>14274</v>
       </c>
       <c r="B127" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C127" t="s">
+        <v>77</v>
+      </c>
+      <c r="D127" t="s">
+        <v>74</v>
+      </c>
+      <c r="E127" t="s">
         <v>73</v>
       </c>
-      <c r="D127" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128">
         <v>14274</v>
       </c>
       <c r="B128" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C128" t="s">
+        <v>77</v>
+      </c>
+      <c r="D128" t="s">
+        <v>75</v>
+      </c>
+      <c r="E128" t="s">
         <v>73</v>
       </c>
-      <c r="D128" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129">
         <v>14274</v>
       </c>
       <c r="B129" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C129" t="s">
+        <v>77</v>
+      </c>
+      <c r="D129" t="s">
+        <v>75</v>
+      </c>
+      <c r="E129" t="s">
         <v>73</v>
       </c>
-      <c r="D129" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130">
         <v>14274</v>
       </c>
       <c r="B130" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C130" t="s">
+        <v>77</v>
+      </c>
+      <c r="D130" t="s">
+        <v>75</v>
+      </c>
+      <c r="E130" t="s">
         <v>73</v>
       </c>
-      <c r="D130" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131">
         <v>14274</v>
       </c>
       <c r="B131" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C131" t="s">
+        <v>77</v>
+      </c>
+      <c r="D131" t="s">
+        <v>75</v>
+      </c>
+      <c r="E131" t="s">
         <v>73</v>
       </c>
-      <c r="D131" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132">
         <v>14274</v>
       </c>
       <c r="B132" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C132" t="s">
+        <v>77</v>
+      </c>
+      <c r="D132" t="s">
+        <v>75</v>
+      </c>
+      <c r="E132" t="s">
         <v>73</v>
       </c>
-      <c r="D132" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133">
         <v>14274</v>
       </c>
       <c r="B133" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C133" t="s">
+        <v>77</v>
+      </c>
+      <c r="D133" t="s">
+        <v>75</v>
+      </c>
+      <c r="E133" t="s">
         <v>73</v>
       </c>
-      <c r="D133" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134">
         <v>14272</v>
       </c>
       <c r="B134" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C134" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135">
         <v>14272</v>
       </c>
       <c r="B135" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C135" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136">
         <v>14272</v>
       </c>
       <c r="B136" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C136" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137">
         <v>14272</v>
       </c>
       <c r="B137" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C137" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138">
         <v>14272</v>
       </c>
       <c r="B138" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C138" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139">
         <v>14272</v>
       </c>
       <c r="B139" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C139" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140">
         <v>14272</v>
       </c>
       <c r="B140" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C140" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141">
         <v>14272</v>
       </c>
       <c r="B141" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C141" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142">
         <v>14272</v>
       </c>
       <c r="B142" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C142" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143">
         <v>14272</v>
       </c>
       <c r="B143" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C143" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144">
         <v>14272</v>
       </c>
       <c r="B144" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C144" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145">
         <v>14272</v>
       </c>
       <c r="B145" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C145" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146">
         <v>14272</v>
       </c>
       <c r="B146" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C146" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147">
         <v>14272</v>
       </c>
       <c r="B147" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C147" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148">
         <v>14272</v>
       </c>
       <c r="B148" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C148" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149">
         <v>14272</v>
       </c>
       <c r="B149" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C149" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150">
         <v>14272</v>
       </c>
       <c r="B150" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C150" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151">
         <v>14272</v>
       </c>
       <c r="B151" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C151" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152">
         <v>14272</v>
       </c>
       <c r="B152" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C152" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153">
         <v>12634</v>
       </c>
       <c r="B153" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C153" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154">
         <v>12053</v>
       </c>
       <c r="B154" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C154" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D154" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155">
         <v>12053</v>
       </c>
       <c r="B155" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C155" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156">
         <v>11936</v>
       </c>
       <c r="B156" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C156" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D156" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157">
         <v>11936</v>
       </c>
       <c r="B157" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C157" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158">
         <v>11936</v>
       </c>
       <c r="B158" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C158" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D158" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159">
         <v>11936</v>
       </c>
       <c r="B159" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C159" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D159" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160">
         <v>11936</v>
       </c>
       <c r="B160" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C160" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D160" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E160" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161">
         <v>11936</v>
       </c>
       <c r="B161" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C161" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D161" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162">
         <v>11933</v>
       </c>
       <c r="B162" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C162" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D162" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="E162" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163">
         <v>11933</v>
       </c>
       <c r="B163" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C163" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D163" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="E163" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164">
         <v>11933</v>
       </c>
       <c r="B164" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C164" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D164" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="E164" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165">
         <v>11822</v>
       </c>
       <c r="B165" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C165" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D165" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E165" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166">
         <v>11219</v>
       </c>
       <c r="B166" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C166" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D166" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167">
         <v>11219</v>
       </c>
       <c r="B167" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C167" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D167" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168">
         <v>11219</v>
       </c>
       <c r="B168" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C168" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D168" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169">
         <v>11219</v>
       </c>
       <c r="B169" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C169" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D169" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E169" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170">
         <v>11219</v>
       </c>
       <c r="B170" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C170" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D170" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171">
         <v>11219</v>
       </c>
       <c r="B171" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C171" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D171" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172">
         <v>11219</v>
       </c>
       <c r="B172" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C172" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D172" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173">
         <v>11219</v>
       </c>
       <c r="B173" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C173" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D173" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174">
         <v>11219</v>
       </c>
       <c r="B174" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C174" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D174" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175">
         <v>11219</v>
       </c>
       <c r="B175" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C175" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D175" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176">
         <v>11219</v>
       </c>
       <c r="B176" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C176" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D176" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>11219</v>
       </c>
       <c r="B177" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C177" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D177" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>11219</v>
       </c>
       <c r="B178" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C178" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D178" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="E178" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>11219</v>
       </c>
       <c r="B179" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C179" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D179" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="E179" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>11219</v>
       </c>
       <c r="B180" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C180" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D180" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="E180" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>11219</v>
       </c>
       <c r="B181" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C181" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D181" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="E181" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>11219</v>
       </c>
       <c r="B182" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C182" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D182" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="E182" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>11219</v>
       </c>
       <c r="B183" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C183" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D183" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="E183" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>11219</v>
       </c>
       <c r="B184" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C184" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D184" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="E184" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>11219</v>
       </c>
       <c r="B185" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C185" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D185" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="E185" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>11219</v>
       </c>
       <c r="B186" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C186" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D186" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="E186" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>11219</v>
       </c>
       <c r="B187" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C187" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D187" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="E187" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>11219</v>
       </c>
       <c r="B188" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C188" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D188" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="E188" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>11219</v>
       </c>
       <c r="B189" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C189" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D189" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="E189" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>11219</v>
       </c>
       <c r="B190" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C190" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D190" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="E190" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>11219</v>
       </c>
       <c r="B191" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C191" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D191" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="E191" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>11219</v>
       </c>
       <c r="B192" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C192" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D192" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="E192" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>11219</v>
       </c>
       <c r="B193" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C193" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D193" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="E193" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>11219</v>
       </c>
       <c r="B194" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C194" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D194" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="E194" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>11219</v>
       </c>
       <c r="B195" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C195" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D195" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="E195" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>11219</v>
       </c>
       <c r="B196" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C196" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D196" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E196" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>11219</v>
       </c>
       <c r="B197" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C197" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D197" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E197" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>11219</v>
       </c>
       <c r="B198" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C198" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D198" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E198" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>11219</v>
       </c>
       <c r="B199" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C199" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D199" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E199" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>11219</v>
       </c>
       <c r="B200" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C200" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D200" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E200" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>11219</v>
       </c>
       <c r="B201" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C201" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D201" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E201" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>11219</v>
       </c>
       <c r="B202" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C202" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D202" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E202" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>11219</v>
       </c>
       <c r="B203" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C203" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D203" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E203" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>11219</v>
       </c>
       <c r="B204" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C204" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D204" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E204" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>11219</v>
       </c>
       <c r="B205" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C205" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D205" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E205" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>11011</v>
       </c>
       <c r="B206" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C206" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D206" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E206" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>11011</v>
       </c>
       <c r="B207" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C207" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D207" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E207" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>11011</v>
       </c>
       <c r="B208" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C208" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D208" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E208" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>11011</v>
       </c>
       <c r="B209" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C209" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D209" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E209" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>11011</v>
       </c>
       <c r="B210" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C210" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D210" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E210" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>11011</v>
       </c>
       <c r="B211" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C211" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D211" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E211" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>11011</v>
       </c>
       <c r="B212" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C212" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D212" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="E212" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>11011</v>
       </c>
       <c r="B213" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C213" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D213" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="E213" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>11011</v>
       </c>
       <c r="B214" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C214" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D214" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="E214" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>11011</v>
       </c>
       <c r="B215" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C215" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D215" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E215" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>11011</v>
       </c>
       <c r="B216" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C216" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D216" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E216" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>11002</v>
       </c>
       <c r="B217" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C217" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D217" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E217" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>10940</v>
       </c>
       <c r="B218" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C218" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D218" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E218" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>10919</v>
       </c>
       <c r="B219" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C219" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D219" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E219" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>10884</v>
       </c>
       <c r="B220" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C220" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D220" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E220" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>10884</v>
       </c>
       <c r="B221" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C221" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D221" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E221" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>10884</v>
       </c>
       <c r="B222" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C222" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D222" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E222" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>10863</v>
       </c>
       <c r="B223" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C223" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D223" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E223" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>10863</v>
       </c>
       <c r="B224" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C224" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D224" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E224" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>10785</v>
       </c>
       <c r="B225" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C225" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D225" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E225" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>10785</v>
       </c>
       <c r="B226" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C226" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D226" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E226" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>10785</v>
       </c>
       <c r="B227" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C227" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D227" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E227" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>10785</v>
       </c>
       <c r="B228" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C228" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D228" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="E228" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>10785</v>
       </c>
       <c r="B229" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C229" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D229" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="E229" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>10785</v>
       </c>
       <c r="B230" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C230" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D230" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="E230" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>10785</v>
       </c>
       <c r="B231" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C231" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D231" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E231" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>10736</v>
       </c>
       <c r="B232" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C232" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D232" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E232" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>10736</v>
       </c>
       <c r="B233" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C233" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D233" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E233" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>10736</v>
       </c>
       <c r="B234" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C234" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D234" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E234" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>10674</v>
       </c>
       <c r="B235" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C235" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D235" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E235" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>10397</v>
       </c>
       <c r="B236" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C236" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D236" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E236" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>10397</v>
       </c>
       <c r="B237" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C237" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D237" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E237" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>10394</v>
       </c>
       <c r="B238" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C238" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D238" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E238" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>10394</v>
       </c>
       <c r="B239" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C239" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D239" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>10394</v>
       </c>
       <c r="B240" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C240" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D240" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E240" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241">
         <v>10394</v>
       </c>
       <c r="B241" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C241" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D241" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="E241" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242">
         <v>10394</v>
       </c>
       <c r="B242" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C242" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D242" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="E242" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>10394</v>
       </c>
       <c r="B243" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C243" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D243" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="E243" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>10394</v>
       </c>
       <c r="B244" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C244" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D244" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E244" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
       <c r="A245">
         <v>10287</v>
       </c>
       <c r="B245" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C245" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D245" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E245" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
       <c r="A246">
         <v>10287</v>
       </c>
       <c r="B246" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C246" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D246" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E246" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>10287</v>
       </c>
       <c r="B247" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C247" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D247" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
+        <v>54</v>
+      </c>
+      <c r="E247" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
       <c r="A248">
         <v>10287</v>
       </c>
       <c r="B248" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C248" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D248" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E248" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
       <c r="A249">
         <v>10287</v>
       </c>
       <c r="B249" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C249" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D249" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E249" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
       <c r="A250">
         <v>10287</v>
       </c>
       <c r="B250" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C250" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D250" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E250" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
       <c r="A251">
         <v>10287</v>
       </c>
       <c r="B251" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C251" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D251" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E251" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
       <c r="A252">
         <v>10281</v>
       </c>
       <c r="B252" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C252" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D252" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E252" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
       <c r="A253">
         <v>10150</v>
       </c>
       <c r="B253" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C253" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D253" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E253" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
       <c r="A254">
         <v>10150</v>
       </c>
       <c r="B254" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C254" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D254" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E254" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
       <c r="A255">
         <v>10150</v>
       </c>
       <c r="B255" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C255" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D255" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E255" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
       <c r="A256">
         <v>10150</v>
       </c>
       <c r="B256" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C256" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D256" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E256" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
       <c r="A257">
         <v>10147</v>
       </c>
       <c r="B257" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C257" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D257" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E257" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
       <c r="A258">
         <v>10144</v>
       </c>
       <c r="B258" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C258" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D258" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E258" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
       <c r="A259">
         <v>10114</v>
       </c>
       <c r="B259" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C259" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D259" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E259" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
       <c r="A260">
         <v>10114</v>
       </c>
       <c r="B260" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C260" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D260" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
+        <v>54</v>
+      </c>
+      <c r="E260" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
       <c r="A261">
         <v>10114</v>
       </c>
       <c r="B261" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C261" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D261" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E261" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
       <c r="A262">
         <v>10114</v>
       </c>
       <c r="B262" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C262" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D262" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E262" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
       <c r="A263">
         <v>10114</v>
       </c>
       <c r="B263" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C263" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D263" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E263" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
       <c r="A264">
         <v>10107</v>
       </c>
       <c r="B264" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C264" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D264" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E264" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
       <c r="A265">
         <v>10107</v>
       </c>
       <c r="B265" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C265" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D265" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E265" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
       <c r="A266">
         <v>10107</v>
       </c>
       <c r="B266" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C266" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D266" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E266" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
       <c r="A267">
         <v>10092</v>
       </c>
       <c r="B267" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C267" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D267" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E267" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
       <c r="A268">
         <v>10092</v>
       </c>
       <c r="B268" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C268" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D268" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E268" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
       <c r="A269">
         <v>10028</v>
       </c>
       <c r="B269" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C269" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D269" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E269" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4557,9 +5340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -4569,17 +5350,17 @@
     <col min="4" max="4" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4588,13 +5369,13 @@
         <v>63145</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4602,13 +5383,13 @@
         <v>63023</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4616,13 +5397,13 @@
         <v>35362</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4630,13 +5411,13 @@
         <v>34477</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4644,13 +5425,13 @@
         <v>22194</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4658,13 +5439,13 @@
         <v>58435</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4672,13 +5453,13 @@
         <v>35635</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4686,13 +5467,13 @@
         <v>34311</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4700,13 +5481,13 @@
         <v>22034</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4714,13 +5495,13 @@
         <v>57690</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4728,13 +5509,13 @@
         <v>57608</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4742,13 +5523,13 @@
         <v>51192</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4756,13 +5537,13 @@
         <v>45411</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4770,13 +5551,13 @@
         <v>26920</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4784,13 +5565,13 @@
         <v>18405</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4798,13 +5579,13 @@
         <v>12217</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4812,13 +5593,13 @@
         <v>50686</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4826,13 +5607,13 @@
         <v>42263</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
         <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4840,13 +5621,13 @@
         <v>34324</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4854,13 +5635,13 @@
         <v>30218</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4868,13 +5649,13 @@
         <v>10663</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4882,13 +5663,13 @@
         <v>62563</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4896,13 +5677,13 @@
         <v>58651</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4910,13 +5691,13 @@
         <v>56984</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4924,13 +5705,13 @@
         <v>56468</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4938,13 +5719,13 @@
         <v>55472</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4952,13 +5733,13 @@
         <v>54615</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4966,13 +5747,13 @@
         <v>46215</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4980,13 +5761,13 @@
         <v>45590</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4994,13 +5775,13 @@
         <v>45410</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5008,13 +5789,13 @@
         <v>43111</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5022,13 +5803,13 @@
         <v>39521</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5036,13 +5817,13 @@
         <v>35716</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5050,13 +5831,13 @@
         <v>35373</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5064,13 +5845,13 @@
         <v>35371</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5078,13 +5859,13 @@
         <v>33276</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5092,13 +5873,13 @@
         <v>26917</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5106,13 +5887,13 @@
         <v>25220</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5120,13 +5901,13 @@
         <v>25203</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5134,13 +5915,13 @@
         <v>25202</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5148,13 +5929,13 @@
         <v>24786</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5162,13 +5943,13 @@
         <v>24260</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -5176,13 +5957,13 @@
         <v>22964</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5190,13 +5971,13 @@
         <v>22869</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -5204,13 +5985,13 @@
         <v>21643</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5218,13 +5999,13 @@
         <v>21208</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5232,13 +6013,13 @@
         <v>20301</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5246,13 +6027,13 @@
         <v>20108</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -5260,13 +6041,13 @@
         <v>19772</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5274,13 +6055,13 @@
         <v>19506</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -5288,13 +6069,13 @@
         <v>18261</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5302,13 +6083,13 @@
         <v>14274</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -5316,13 +6097,13 @@
         <v>14272</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D54" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -5330,13 +6111,13 @@
         <v>12634</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -5344,13 +6125,13 @@
         <v>12053</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -5358,13 +6139,13 @@
         <v>11936</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -5372,13 +6153,13 @@
         <v>11933</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5386,13 +6167,13 @@
         <v>11822</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D59" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -5400,13 +6181,13 @@
         <v>11219</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -5414,13 +6195,13 @@
         <v>11011</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D61" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -5428,13 +6209,13 @@
         <v>11002</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5442,13 +6223,13 @@
         <v>10940</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -5456,13 +6237,13 @@
         <v>10919</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D64" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -5470,13 +6251,13 @@
         <v>10884</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D65" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -5484,13 +6265,13 @@
         <v>10863</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D66" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5498,13 +6279,13 @@
         <v>10785</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D67" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -5512,13 +6293,13 @@
         <v>10736</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D68" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -5526,13 +6307,13 @@
         <v>10674</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -5540,13 +6321,13 @@
         <v>10397</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C70" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D70" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -5554,13 +6335,13 @@
         <v>10394</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C71" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D71" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -5568,13 +6349,13 @@
         <v>10287</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C72" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D72" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5582,13 +6363,13 @@
         <v>10281</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C73" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D73" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -5596,13 +6377,13 @@
         <v>10150</v>
       </c>
       <c r="B74" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D74" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -5610,13 +6391,13 @@
         <v>10147</v>
       </c>
       <c r="B75" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C75" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -5624,13 +6405,13 @@
         <v>10144</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -5638,13 +6419,13 @@
         <v>10114</v>
       </c>
       <c r="B77" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D77" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -5652,13 +6433,13 @@
         <v>10107</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C78" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D78" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -5666,13 +6447,13 @@
         <v>10092</v>
       </c>
       <c r="B79" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C79" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -5680,13 +6461,13 @@
         <v>10028</v>
       </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D80" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
